--- a/ema_data.xlsx
+++ b/ema_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21ED82FD-4392-5045-902E-A31308925841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A0BFD9-1C3C-4F48-9176-BD810DBAC7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{7ACC6DE9-5C99-4390-B691-BD83FA741BC6}"/>
+    <workbookView xWindow="-40340" yWindow="-2300" windowWidth="29040" windowHeight="17800" activeTab="1" xr2:uid="{7ACC6DE9-5C99-4390-B691-BD83FA741BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="3" r:id="rId1"/>
@@ -609,9 +609,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -649,7 +649,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -755,7 +755,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -897,7 +897,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962357AE-07C9-4F11-B08D-5DAD1640CB59}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="G1" sqref="G1:DM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1741,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FB6B39-74F2-4CA6-9FDC-E23DB4574F04}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G1:DJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2442,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6F9202-8F50-4D40-A3F1-9A1AAE086247}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="E1" sqref="E1:EL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2454,83 +2454,6 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2632,256 +2555,312 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="6">
+        <v>45586</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45621</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45688</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="6">
+        <v>45621</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45659</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45688</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45716</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="6">
+        <v>45645</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45684</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45716</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45379</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="6">
+        <v>45677</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45712</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45744</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45772</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="6">
+        <v>45705</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45740</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45772</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45800</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="6">
+        <v>45733</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45769</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45800</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45463</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="6">
+        <v>45769</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45803</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45828</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45863</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="6">
+        <v>45810</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45815</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45863</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45912</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="6">
+        <v>45852</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45887</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45912</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45947</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="6">
+        <v>45880</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45915</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45947</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45975</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="6">
+        <v>45908</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45943</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45975</v>
+      </c>
+      <c r="D18" s="6">
+        <v>46003</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="6">
+        <v>45950</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45985</v>
+      </c>
+      <c r="C19" s="6">
+        <v>46003</v>
+      </c>
+      <c r="D19" s="6">
+        <v>46052</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="6">
+        <v>45985</v>
+      </c>
+      <c r="B20" s="6">
+        <v>46027</v>
+      </c>
+      <c r="C20" s="6">
+        <v>46052</v>
+      </c>
+      <c r="D20" s="6">
+        <v>46080</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="6">
+        <v>46009</v>
+      </c>
+      <c r="B21" s="6">
+        <v>46048</v>
+      </c>
+      <c r="C21" s="6">
+        <v>46080</v>
+      </c>
+      <c r="D21" s="6">
+        <v>46108</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="6">
+        <v>46041</v>
+      </c>
+      <c r="B22" s="6">
+        <v>46076</v>
+      </c>
+      <c r="C22" s="6">
+        <v>46108</v>
+      </c>
+      <c r="D22" s="6">
+        <v>46136</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="6">
+        <v>46069</v>
+      </c>
+      <c r="B23" s="6">
+        <v>46104</v>
+      </c>
+      <c r="C23" s="6">
+        <v>46136</v>
+      </c>
+      <c r="D23" s="6">
+        <v>46164</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="6">
+        <v>46104</v>
+      </c>
+      <c r="B24" s="6">
+        <v>46140</v>
+      </c>
+      <c r="C24" s="6">
+        <v>46164</v>
+      </c>
+      <c r="D24" s="6">
+        <v>46199</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="6">
+        <v>46132</v>
+      </c>
+      <c r="B25" s="6">
+        <v>46168</v>
+      </c>
+      <c r="C25" s="6">
+        <v>46199</v>
+      </c>
+      <c r="D25" s="6">
+        <v>46227</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="6">
+        <v>46174</v>
+      </c>
+      <c r="B26" s="6">
+        <v>46209</v>
+      </c>
+      <c r="C26" s="6">
+        <v>46227</v>
+      </c>
+      <c r="D26" s="6">
+        <v>46276</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="6">
+        <v>46216</v>
+      </c>
+      <c r="B27" s="6">
+        <v>46251</v>
+      </c>
+      <c r="C27" s="6">
+        <v>46276</v>
+      </c>
+      <c r="D27" s="6">
+        <v>46311</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="6">
+        <v>46244</v>
+      </c>
+      <c r="B28" s="6">
+        <v>46279</v>
+      </c>
+      <c r="C28" s="6">
+        <v>46311</v>
+      </c>
+      <c r="D28" s="6">
+        <v>46339</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="A29" s="6">
+        <v>46272</v>
+      </c>
+      <c r="B29" s="6">
+        <v>46307</v>
+      </c>
+      <c r="C29" s="6">
+        <v>46339</v>
+      </c>
+      <c r="D29" s="6">
+        <v>46367</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2894,13 +2873,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1:DO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.2">
@@ -2996,7 +2975,7 @@
         <v>45623</v>
       </c>
       <c r="B12" s="8">
-        <v>45321</v>
+        <v>45688</v>
       </c>
     </row>
   </sheetData>
@@ -3009,9 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3942252-F67C-4144-AF29-AC9F11AA2D9F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3096,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46D2D73-943C-4489-B275-DBB5D5264F38}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4299,7 +4276,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J1" sqref="J1:CD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5279,7 +5256,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="G1" sqref="G1:BU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5982,7 +5959,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="G1" sqref="G1:BO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6685,7 +6662,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="F1" sqref="F1:CD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7285,8 +7262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAC5294-CAD6-4D7B-AE3C-79E00ED0AE32}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:CM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8473,7 +8450,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="H1" sqref="H1:BT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9274,7 +9251,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="H1" sqref="H1:CX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ema_data.xlsx
+++ b/ema_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A628CD-B80E-954C-9A37-4E1F33D15443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3753ACAF-264D-A141-A73F-6B864A35F00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="10700" windowWidth="19420" windowHeight="11620" xr2:uid="{7ACC6DE9-5C99-4390-B691-BD83FA741BC6}"/>
+    <workbookView xWindow="8120" yWindow="3120" windowWidth="34300" windowHeight="20580" activeTab="11" xr2:uid="{7ACC6DE9-5C99-4390-B691-BD83FA741BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="3" r:id="rId1"/>
@@ -1049,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962357AE-07C9-4F11-B08D-5DAD1640CB59}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6F9202-8F50-4D40-A3F1-9A1AAE086247}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2797,7 +2797,7 @@
         <v>45716</v>
       </c>
       <c r="D10" s="6">
-        <v>45379</v>
+        <v>45744</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>45800</v>
       </c>
       <c r="D13" s="6">
-        <v>45463</v>
+        <v>45828</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
